--- a/com.investing/src/test/resources/test_data.xlsx
+++ b/com.investing/src/test/resources/test_data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdul\IdeaProjects\SeleniumBootcamp\com.investing\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{175D6D91-5ADA-4F3D-82AD-7AC9F13D5A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108B3194-4D2E-4C6E-A3A2-B174AB8629E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{D88A1527-6187-4F85-9829-5A0CF2181A1C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{D88A1527-6187-4F85-9829-5A0CF2181A1C}"/>
   </bookViews>
   <sheets>
     <sheet name="signin_investing" sheetId="1" r:id="rId1"/>
+    <sheet name="search term_investing" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>email</t>
   </si>
@@ -60,6 +61,21 @@
   </si>
   <si>
     <t>Invest6192</t>
+  </si>
+  <si>
+    <t>search term</t>
+  </si>
+  <si>
+    <t>bitcoin</t>
+  </si>
+  <si>
+    <t>ethereum</t>
+  </si>
+  <si>
+    <t>bond</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
 </sst>
 </file>
@@ -430,7 +446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19209319-DBA2-4442-87BA-17A164AB14F4}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -480,4 +496,44 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A790EA-5DAF-46ED-B4D3-4D3DA07BD9F8}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="A5:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>